--- a/2024/03-data-journalism/data/malaria_data.xlsx
+++ b/2024/03-data-journalism/data/malaria_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cpslo-my.sharepoint.com/personal/erobin17_calpoly_edu/Documents/stat365-calpoly/02-data-journalism/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cpslo-my.sharepoint.com/personal/erobin17_calpoly_edu/Documents/stat365-calpoly/2024/03-data-journalism/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:40009_{D8B2FBAE-08C5-471E-8B30-A3F9C7ABAC24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A462CF4A-6626-4D07-9D3E-515D60E2EED4}"/>
+  <xr:revisionPtr revIDLastSave="92" documentId="13_ncr:40009_{D8B2FBAE-08C5-471E-8B30-A3F9C7ABAC24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{04F567BC-5F84-420B-94B2-606B36BF238C}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="3" r:id="rId1"/>
@@ -19,15 +19,28 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">malaria_data!$A$1:$D$440</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="7" r:id="rId3"/>
+    <pivotCache cacheId="9" r:id="rId3"/>
   </pivotCaches>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="12">
   <si>
     <t>ID</t>
   </si>
@@ -56,25 +69,10 @@
     <t>Age_months</t>
   </si>
   <si>
-    <t>Column Labels</t>
-  </si>
-  <si>
     <t>Grand Total</t>
   </si>
   <si>
     <t>Row Labels</t>
-  </si>
-  <si>
-    <t>Count of ID</t>
-  </si>
-  <si>
-    <t>(blank)</t>
-  </si>
-  <si>
-    <t>Total Count of ID</t>
-  </si>
-  <si>
-    <t>Total Average of Age_months</t>
   </si>
   <si>
     <t>Average of Age_months</t>
@@ -84,6 +82,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -561,14 +562,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -628,7 +628,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Emily Anna Robinson" refreshedDate="45027.687562037034" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="440" xr:uid="{388DF054-38B0-4FEE-A7AE-8FA1DCD36BCE}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Emily Anna Robinson" refreshedDate="45399.387347569442" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="440" xr:uid="{8A8340A6-7169-4DB5-8477-73EAB1BF9918}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:D1048576" sheet="malaria_data"/>
   </cacheSource>
@@ -3309,21 +3309,21 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7A50AB9A-863A-47AD-8C0B-34F23779AAFD}" name="PivotTable2" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:K9" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6BA15C9F-BEF1-4E42-B9DE-F19CD4409F88}" name="PivotTable2" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
+    <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
+    <pivotField axis="axisRow" showAll="0">
       <items count="5">
         <item x="1"/>
         <item x="0"/>
         <item x="2"/>
-        <item x="3"/>
+        <item h="1" x="3"/>
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisRow" showAll="0">
+    <pivotField showAll="0">
       <items count="4">
         <item x="1"/>
         <item x="0"/>
@@ -3333,7 +3333,7 @@
     </pivotField>
   </pivotFields>
   <rowFields count="1">
-    <field x="3"/>
+    <field x="2"/>
   </rowFields>
   <rowItems count="4">
     <i>
@@ -3349,49 +3349,11 @@
       <x/>
     </i>
   </rowItems>
-  <colFields count="2">
-    <field x="2"/>
-    <field x="-2"/>
-  </colFields>
-  <colItems count="10">
-    <i>
-      <x/>
-      <x/>
-    </i>
-    <i r="1" i="1">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="1"/>
-      <x/>
-    </i>
-    <i r="1" i="1">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-      <x/>
-    </i>
-    <i r="1" i="1">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="3"/>
-      <x/>
-    </i>
-    <i r="1" i="1">
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-    <i t="grand" i="1">
-      <x/>
-    </i>
+  <colItems count="1">
+    <i/>
   </colItems>
-  <dataFields count="2">
-    <dataField name="Count of ID" fld="0" subtotal="count" showDataAs="percentOfCol" baseField="3" baseItem="0" numFmtId="10"/>
-    <dataField name="Average of Age_months" fld="1" subtotal="average" baseField="3" baseItem="0" numFmtId="2"/>
+  <dataFields count="1">
+    <dataField name="Average of Age_months" fld="1" subtotal="average" baseField="3" baseItem="0" numFmtId="164"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -3406,9 +3368,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3446,7 +3408,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3552,7 +3514,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3694,216 +3656,78 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D73CACA-E99D-4253-8B61-63A27D96AB4D}">
-  <dimension ref="A3:K9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1FEACF3-73F8-4CDA-B232-D2A01AEC001A}">
+  <dimension ref="A3:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="181" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3">
+        <v>8.4520547945205475</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3">
+        <v>8.8150684931506849</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="3">
+        <v>9.0748299319727899</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="3">
-        <v>0.26027397260273971</v>
-      </c>
-      <c r="C6" s="4">
-        <v>7.6842105263157894</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0.29452054794520549</v>
-      </c>
-      <c r="E6" s="4">
-        <v>8.1395348837209305</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="G6" s="4">
-        <v>8.6190476190476186</v>
-      </c>
-      <c r="H6" s="3" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="3">
-        <v>0.42369020501138954</v>
-      </c>
-      <c r="K6" s="4">
-        <v>8.3172043010752681</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="B7" s="3">
-        <v>0.73972602739726023</v>
-      </c>
-      <c r="C7" s="4">
-        <v>8.7222222222222214</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0.70547945205479456</v>
-      </c>
-      <c r="E7" s="4">
-        <v>9.0970873786407775</v>
-      </c>
-      <c r="F7" s="3">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="G7" s="4">
-        <v>10.214285714285714</v>
-      </c>
-      <c r="H7" s="3" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="3">
-        <v>0.57630979498861046</v>
-      </c>
-      <c r="K7" s="4">
-        <v>9.1225296442687753</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="3">
-        <v>0</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="3">
-        <v>0</v>
-      </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="3" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
-      <c r="K8" s="4"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="3">
-        <v>1</v>
-      </c>
-      <c r="C9" s="4">
-        <v>8.4520547945205475</v>
-      </c>
-      <c r="D9" s="3">
-        <v>1</v>
-      </c>
-      <c r="E9" s="4">
-        <v>8.8150684931506849</v>
-      </c>
-      <c r="F9" s="3">
-        <v>1</v>
-      </c>
-      <c r="G9" s="4">
-        <v>9.0748299319727899</v>
-      </c>
-      <c r="H9" s="3" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I9" s="4"/>
-      <c r="J9" s="3">
-        <v>1</v>
-      </c>
-      <c r="K9" s="4">
         <v>8.7813211845102508</v>
       </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3911,8 +3735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D440"/>
   <sheetViews>
-    <sheetView zoomScale="113" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView zoomScale="251" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10084,6 +9908,10 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D440" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D440">
+    <sortCondition ref="A2:A440"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>